--- a/segmentacao_clientes.xlsx
+++ b/segmentacao_clientes.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ouro</t>
+          <t>Diamante</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Prata</t>
+          <t>Ouro</t>
         </is>
       </c>
     </row>
@@ -533,11 +533,11 @@
         <v>14079</v>
       </c>
       <c r="B8" t="n">
-        <v>1538002844.5</v>
+        <v>412634909.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Diamante</t>
+          <t>Prata</t>
         </is>
       </c>
     </row>
